--- a/_content/training/2018/trainingsuren-2018-2019.xlsx
+++ b/_content/training/2018/trainingsuren-2018-2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brechttruyers/Desktop/basketbal 2018-2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\basket\lummen\_content\training\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8E503D-9777-4818-AB89-6F151EEF7D6D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="680" windowWidth="12380" windowHeight="15520"/>
+    <workbookView xWindow="18060" yWindow="677" windowWidth="12377" windowHeight="15523" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maandag" sheetId="1" r:id="rId1"/>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,7 +414,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
     <dxf>
@@ -552,7 +553,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -745,7 +746,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -938,7 +939,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1131,7 +1132,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1324,7 +1325,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1400,75 +1401,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A2:F29" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A2:F29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A2:F29" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A2:F29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Maandag" dataDxfId="37"/>
-    <tableColumn id="2" name="SH1" dataDxfId="36"/>
-    <tableColumn id="3" name="SH2" dataDxfId="35"/>
-    <tableColumn id="4" name="SH3" dataDxfId="34"/>
-    <tableColumn id="5" name="OHVM" dataDxfId="33"/>
-    <tableColumn id="6" name="ZOLDER" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Maandag" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SH1" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SH2" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SH3" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="OHVM" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ZOLDER" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:F28" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel14" displayName="Tabel14" ref="A1:F28" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Dinsdag" dataDxfId="29"/>
-    <tableColumn id="2" name="SH1" dataDxfId="28"/>
-    <tableColumn id="3" name="SH2" dataDxfId="27"/>
-    <tableColumn id="4" name="SH3" dataDxfId="26"/>
-    <tableColumn id="5" name="OHVM" dataDxfId="25"/>
-    <tableColumn id="6" name="ZOLDER" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Dinsdag" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SH1" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="SH2" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="SH3" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="OHVM" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="ZOLDER" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabel16" displayName="Tabel16" ref="A1:F28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel16" displayName="Tabel16" ref="A1:F28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Woensdag" dataDxfId="21"/>
-    <tableColumn id="2" name="SH1" dataDxfId="20"/>
-    <tableColumn id="3" name="SH2" dataDxfId="19"/>
-    <tableColumn id="4" name="SH3" dataDxfId="18"/>
-    <tableColumn id="5" name="OHVM" dataDxfId="17"/>
-    <tableColumn id="6" name="ZOLDER" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Woensdag" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SH1" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="SH2" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="SH3" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="OHVM" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="ZOLDER" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel18" displayName="Tabel18" ref="A1:F28" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel18" displayName="Tabel18" ref="A1:F28" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Donderdag" dataDxfId="13"/>
-    <tableColumn id="2" name="SH1" dataDxfId="12"/>
-    <tableColumn id="3" name="SH2" dataDxfId="11"/>
-    <tableColumn id="4" name="SH3" dataDxfId="10"/>
-    <tableColumn id="5" name="OHVM" dataDxfId="9"/>
-    <tableColumn id="6" name="ZOLDER" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Donderdag" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="SH1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="SH2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="SH3" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="OHVM" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="ZOLDER" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabel110" displayName="Tabel110" ref="A1:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabel110" displayName="Tabel110" ref="A1:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Vrijdag" dataDxfId="5"/>
-    <tableColumn id="2" name="SH1" dataDxfId="4"/>
-    <tableColumn id="3" name="SH2" dataDxfId="3"/>
-    <tableColumn id="4" name="SH3" dataDxfId="2"/>
-    <tableColumn id="5" name="OHVM" dataDxfId="1"/>
-    <tableColumn id="6" name="ZOLDER" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Vrijdag" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="SH1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="SH2" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="SH3" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="OHVM" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="ZOLDER" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1760,22 +1761,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.4609375" customWidth="1"/>
+    <col min="15" max="15" width="18.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1805,7 +1806,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1815,7 +1816,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1825,7 +1826,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1835,7 +1836,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1845,7 +1846,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1855,7 +1856,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1865,7 +1866,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1875,7 +1876,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1885,7 +1886,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1895,7 +1896,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1905,7 +1906,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1915,7 +1916,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1925,7 +1926,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1935,7 +1936,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1945,7 +1946,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +1956,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1965,7 +1966,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1975,7 +1976,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,7 +1986,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,7 +2002,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2017,7 +2018,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -2033,7 +2034,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2043,7 +2044,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2053,7 +2054,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,7 +2064,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2073,7 +2074,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2083,33 +2084,33 @@
       <c r="E29" s="7"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2121,19 +2122,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -2153,7 +2154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2163,7 +2164,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2173,7 +2174,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2183,7 +2184,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2193,7 +2194,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2203,7 +2204,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2213,7 +2214,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2223,7 +2224,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2233,7 +2234,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2243,7 +2244,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2253,7 +2254,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2263,7 +2264,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2273,7 +2274,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2283,7 +2284,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2293,7 +2294,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2303,7 +2304,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2313,7 +2314,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -2323,7 +2324,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2337,7 +2338,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -2351,7 +2352,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2367,7 +2368,7 @@
       <c r="E21" s="18"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2383,7 +2384,7 @@
       <c r="E22" s="18"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -2399,7 +2400,7 @@
       <c r="E23" s="18"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2413,7 +2414,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -2429,7 +2430,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2445,7 +2446,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -2461,7 +2462,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2482,19 +2483,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2524,7 +2525,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2534,7 +2535,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2544,7 +2545,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2554,7 +2555,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2564,7 +2565,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2574,7 +2575,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2584,7 +2585,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2594,7 +2595,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2604,7 +2605,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2614,7 +2615,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2624,7 +2625,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2634,7 +2635,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2644,7 +2645,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2654,7 +2655,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2664,7 +2665,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2674,7 +2675,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -2684,7 +2685,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2700,7 +2701,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -2716,7 +2717,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2732,7 +2733,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2746,7 +2747,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -2760,7 +2761,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2774,7 +2775,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -2790,7 +2791,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2806,7 +2807,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -2822,7 +2823,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2836,7 +2837,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2848,19 +2849,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2890,7 +2891,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2900,7 +2901,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2910,7 +2911,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2920,7 +2921,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2930,7 +2931,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2940,7 +2941,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2950,7 +2951,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2960,7 +2961,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2970,7 +2971,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2980,7 +2981,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2990,7 +2991,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3000,7 +3001,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3010,7 +3011,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3020,7 +3021,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3030,7 +3031,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -3040,7 +3041,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -3050,7 +3051,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3064,7 +3065,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -3078,7 +3079,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -3094,7 +3095,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -3110,7 +3111,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -3126,12 +3127,12 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>50</v>
@@ -3142,12 +3143,12 @@
       <c r="E24" s="6"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>41</v>
@@ -3158,12 +3159,12 @@
       <c r="E25" s="6"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>41</v>
@@ -3176,7 +3177,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -3192,7 +3193,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3213,19 +3214,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -3245,7 +3246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3255,7 +3256,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3265,7 +3266,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3275,7 +3276,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3285,7 +3286,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3295,7 +3296,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3305,7 +3306,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3315,7 +3316,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3325,7 +3326,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3335,7 +3336,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3345,7 +3346,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3355,7 +3356,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3365,7 +3366,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3375,7 +3376,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3385,7 +3386,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3395,7 +3396,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -3405,7 +3406,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -3421,7 +3422,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3437,7 +3438,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -3453,7 +3454,7 @@
       <c r="E20" s="18"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -3471,12 +3472,12 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>52</v>
@@ -3489,12 +3490,12 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
@@ -3505,12 +3506,12 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
@@ -3521,7 +3522,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -3535,7 +3536,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3547,7 +3548,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -3559,7 +3560,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3569,7 +3570,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_content/training/2018/trainingsuren-2018-2019.xlsx
+++ b/_content/training/2018/trainingsuren-2018-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\basket\lummen\_content\training\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d91054ca25cdb7b6/Basketbal/Basket Lummen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8E503D-9777-4818-AB89-6F151EEF7D6D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{030B165E-375B-4335-8488-F4ECA8F5AB60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{71262D34-3EA6-4892-A049-411F4910EB9A}"/>
   <bookViews>
-    <workbookView xWindow="18060" yWindow="677" windowWidth="12377" windowHeight="15523" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maandag" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Woensdag" sheetId="3" r:id="rId3"/>
     <sheet name="Donderdag" sheetId="4" r:id="rId4"/>
     <sheet name="Vrijdag" sheetId="5" r:id="rId5"/>
+    <sheet name="Zondag" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="62">
   <si>
     <t>SH2</t>
   </si>
@@ -175,9 +176,6 @@
     <t>U10-B</t>
   </si>
   <si>
-    <t>U8-B</t>
-  </si>
-  <si>
     <t>U19 LAND</t>
   </si>
   <si>
@@ -215,13 +213,19 @@
   </si>
   <si>
     <t>U16 L M</t>
+  </si>
+  <si>
+    <t>Beginners</t>
+  </si>
+  <si>
+    <t>Multimove</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,12 +260,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -277,7 +275,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,25 +302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -367,7 +353,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -376,47 +362,222 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1386,6 +1547,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFEAB"/>
     </mruColors>
   </colors>
@@ -1400,76 +1562,189 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Tekstvak 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88656B5-D82E-40DB-ABC2-CA099D796876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="390525"/>
+          <a:ext cx="3095625" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100"/>
+            <a:t>Multimove is in samenwerking met de sportdienst.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100"/>
+            <a:t>Meer info via de sportdienst of via</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" baseline="0"/>
+            <a:t> Basket Lummen.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" baseline="0"/>
+            <a:t>4 - 5 jarige 09:00 tot 10:00</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100" baseline="0"/>
+            <a:t>6 jarige 10:00 tot 11:00</a:t>
+          </a:r>
+          <a:endParaRPr lang="nl-BE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A2:F29" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A2:F29" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A2:F29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Maandag" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SH1" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SH2" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SH3" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="OHVM" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ZOLDER" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Maandag" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SH1" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SH2" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SH3" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="OHVM" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ZOLDER" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel14" displayName="Tabel14" ref="A1:F28" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel14" displayName="Tabel14" ref="A1:F28" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Dinsdag" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SH1" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="SH2" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="SH3" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="OHVM" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="ZOLDER" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Dinsdag" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SH1" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="SH2" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="SH3" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="OHVM" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="ZOLDER" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel16" displayName="Tabel16" ref="A1:F28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel16" displayName="Tabel16" ref="A1:F28" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Woensdag" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SH1" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="SH2" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="SH3" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="OHVM" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="ZOLDER" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Woensdag" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SH1" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="SH2" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="SH3" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="OHVM" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="ZOLDER" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel18" displayName="Tabel18" ref="A1:F28" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel18" displayName="Tabel18" ref="A1:F28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Donderdag" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="SH1" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="SH2" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="SH3" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="OHVM" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="ZOLDER" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Donderdag" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="SH1" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="SH2" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="SH3" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="OHVM" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="ZOLDER" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabel110" displayName="Tabel110" ref="A1:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabel110" displayName="Tabel110" ref="A1:F28" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Vrijdag" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="SH1" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="SH2" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="SH3" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="OHVM" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="ZOLDER" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Vrijdag" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="SH1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="SH2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="SH3" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="OHVM" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="ZOLDER" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A623B1F-B36C-4BF8-9C60-435B67110126}" name="Tabel1103" displayName="Tabel1103" ref="A1:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F28" xr:uid="{9403FB1A-91DE-4EC9-B6A8-E1270A69F8C1}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{24654C28-2811-4313-8FA4-1F65652C858E}" name="Vrijdag" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0684B723-412B-4797-9FD3-70D34223165E}" name="SH1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{3B0B97E3-F0EC-46CD-BB02-13FE1C920E2F}" name="SH2" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{25903AA0-82C8-4AA5-9D66-2496D1013AA8}" name="SH3" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{0A934FA0-9315-40D8-9675-FB4498576D65}" name="OHVM" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{524C1B8E-A2D5-44FA-8CDD-0C14C1B82862}" name="ZOLDER" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1765,18 +2040,18 @@
   <dimension ref="A2:F58"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="18.4609375" customWidth="1"/>
-    <col min="15" max="15" width="18.15234375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +2071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1806,7 +2081,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +2091,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +2101,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1836,7 +2111,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1846,7 +2121,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1856,7 +2131,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1866,7 +2141,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1876,7 +2151,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1886,7 +2161,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1896,7 +2171,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1906,7 +2181,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1916,7 +2191,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1926,7 +2201,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1936,7 +2211,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1946,7 +2221,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1956,163 +2231,163 @@
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="17"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="17"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="2"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="2"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="2"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2125,16 +2400,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -2154,7 +2429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2164,7 +2439,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2174,7 +2449,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2184,7 +2459,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2194,7 +2469,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2204,7 +2479,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2214,7 +2489,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2224,7 +2499,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2234,7 +2509,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2244,7 +2519,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2254,7 +2529,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2264,7 +2539,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2274,7 +2549,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2284,7 +2559,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2294,7 +2569,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2304,7 +2579,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2314,166 +2589,168 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="18"/>
+      <c r="B22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="18"/>
+      <c r="B23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="17"/>
+      <c r="C24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="17"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
@@ -2487,15 +2764,15 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B24" sqref="B24:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -2515,7 +2792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2525,7 +2802,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2535,7 +2812,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2545,7 +2822,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2555,7 +2832,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2565,7 +2842,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2575,7 +2852,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2585,7 +2862,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2595,7 +2872,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2605,7 +2882,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2615,7 +2892,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2625,7 +2902,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2635,7 +2912,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2645,7 +2922,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2655,191 +2932,191 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="7"/>
+      <c r="B24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
@@ -2852,16 +3129,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A6" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -2881,7 +3158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2891,7 +3168,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2901,7 +3178,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2911,7 +3188,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2921,7 +3198,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2931,7 +3208,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2941,7 +3218,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2951,7 +3228,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2961,7 +3238,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2971,7 +3248,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2981,7 +3258,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2991,7 +3268,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3001,7 +3278,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3011,7 +3288,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3021,7 +3298,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3031,180 +3308,180 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>54</v>
+      <c r="E21" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="C24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
@@ -3217,16 +3494,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.3046875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -3246,7 +3523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3256,7 +3533,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3266,7 +3543,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3276,7 +3553,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3286,7 +3563,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3296,7 +3573,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3306,7 +3583,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3316,7 +3593,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3326,7 +3603,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3336,7 +3613,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3346,7 +3623,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3356,7 +3633,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3366,7 +3643,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3376,7 +3653,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3386,7 +3663,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3396,7 +3673,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -3406,177 +3683,498 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="D20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="8"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>48</v>
+      <c r="D21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>48</v>
+      <c r="D22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>48</v>
+      <c r="E23" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="11" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="12" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="12" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6469F1-D088-4E4F-B0F4-DB458EABD7E8}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>